--- a/biology/Botanique/Ceratophyllum_submersum/Ceratophyllum_submersum.xlsx
+++ b/biology/Botanique/Ceratophyllum_submersum/Ceratophyllum_submersum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ceratophyllum submersum, communément appelé en français Cornifle submergé, Cératophylle submergé ou Cératophylle inerme, est une espèce de plante aquatique de la famille des Ceratophyllaceae dont chaque verticille peut compter jusqu'à 120 segments[1]. Cette plante d'origine cosmopolite peut mesurer jusqu’à 50 cm de long[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceratophyllum submersum, communément appelé en français Cornifle submergé, Cératophylle submergé ou Cératophylle inerme, est une espèce de plante aquatique de la famille des Ceratophyllaceae dont chaque verticille peut compter jusqu'à 120 segments. Cette plante d'origine cosmopolite peut mesurer jusqu’à 50 cm de long.
 </t>
         </is>
       </c>
